--- a/templates/community/MAdLand/MAdLand_sample_sheets.xlsx
+++ b/templates/community/MAdLand/MAdLand_sample_sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MAdLand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8F608C-CDA9-467F-A5E8-00B6AD2AE70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8372EE-BFFA-45E1-B20F-4CEDA1EF1E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{D3EB6A5A-F5C7-441F-91D4-3808AE23C83B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D3EB6A5A-F5C7-441F-91D4-3808AE23C83B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample information" sheetId="1" r:id="rId1"/>
@@ -50,75 +50,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AFAC9482-5B1B-4047-96FF-8E343FAFAA16}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=bac2606c-ac54-4abf-8a76-257bdc777e4d</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{378D63A7-4B55-4EC7-AC00-DCA67A86B4A3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{46B5F1FA-A49E-4609-9A85-F43E892222E4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{8DC5B03A-A150-4C9A-8134-CAC922482A26}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{0E4B40E6-3AA6-4BC6-BAC6-64536A89B2DC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{2DB4CE41-E6E9-4A01-8E91-48AD04EC602A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A2955A8A-2890-4BF1-AE51-8090DC2E0721}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{3E4D436F-64AB-4B66-BF16-859DD6CAEB18}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{5C4C7881-A516-4297-91A6-C38AA950E52D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>Source Name</t>
   </si>
@@ -325,13 +325,19 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
+  </si>
+  <si>
+    <t>NCIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,12 +360,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -511,8 +511,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,9 +570,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -610,7 +610,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -716,7 +716,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -858,7 +858,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -938,37 +938,37 @@
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="42.42578125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="39.5703125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="42.44140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.44140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="39.5546875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R8" t="s">
         <v>20</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R9" t="s">
         <v>20</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R10" t="s">
         <v>20</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R11" t="s">
         <v>20</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R12" t="s">
         <v>20</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R13" t="s">
         <v>20</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R14" t="s">
         <v>20</v>
       </c>
@@ -1117,17 +1117,17 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1175,31 +1175,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -1221,29 +1221,33 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -1259,13 +1263,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -1273,49 +1277,49 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>65</v>
       </c>

--- a/templates/community/MAdLand/MAdLand_sample_sheets.xlsx
+++ b/templates/community/MAdLand/MAdLand_sample_sheets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MAdLand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8372EE-BFFA-45E1-B20F-4CEDA1EF1E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECC5FD0-8C7C-4268-9E92-2BB443D70492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D3EB6A5A-F5C7-441F-91D4-3808AE23C83B}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>Source Name</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Plant</t>
   </si>
   <si>
-    <t>sample_collection</t>
-  </si>
-  <si>
     <t>Haas</t>
   </si>
   <si>
@@ -331,6 +328,12 @@
   </si>
   <si>
     <t>NCIT</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>NCIT:C25662</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1120,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,7 +1159,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1218,7 +1221,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1227,9 +1230,11 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1237,7 +1242,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -1252,7 +1257,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1260,7 +1265,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1274,7 +1279,7 @@
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1303,25 +1308,25 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="9"/>
     </row>

--- a/templates/community/MAdLand/MAdLand_sample_sheets.xlsx
+++ b/templates/community/MAdLand/MAdLand_sample_sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MAdLand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECC5FD0-8C7C-4268-9E92-2BB443D70492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D162ECA0-4AFA-4A24-B6AA-950DA3AC33D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D3EB6A5A-F5C7-441F-91D4-3808AE23C83B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3EB6A5A-F5C7-441F-91D4-3808AE23C83B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample information" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>Source Name</t>
   </si>
@@ -135,42 +135,6 @@
     <t>Sample Name</t>
   </si>
   <si>
-    <t>Characteristics [Organism]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000030)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000030)</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000146)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000146)</t>
-  </si>
-  <si>
-    <t>Characteristics [Strain]</t>
-  </si>
-  <si>
-    <t>Characteristics [Jar]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000148)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000148)</t>
-  </si>
-  <si>
-    <t>Characteristics [Plate]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000149)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000149)</t>
-  </si>
-  <si>
     <t>Characteristics [tissue]</t>
   </si>
   <si>
@@ -180,15 +144,6 @@
     <t>Term Accession Number (UBERON:0000479)</t>
   </si>
   <si>
-    <t>Characteristics [Contamination]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000150)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000150)</t>
-  </si>
-  <si>
     <t>NFDI4PSO</t>
   </si>
   <si>
@@ -204,15 +159,6 @@
     <t>Term Accession Number (GAZ:00000448)</t>
   </si>
   <si>
-    <t>Characteristics [Laboratory strain]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000152)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000152)</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -334,6 +280,63 @@
   </si>
   <si>
     <t>NCIT:C25662</t>
+  </si>
+  <si>
+    <t>Characteristic [organism]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Term Source REF (OBI:0100026)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (OBI:0100026)</t>
+  </si>
+  <si>
+    <t>Characteristic [strain]</t>
+  </si>
+  <si>
+    <t>Term Source REF (EFO:0005135)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (EFO:0005135)</t>
+  </si>
+  <si>
+    <t>Characteristic [jar]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000148)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000148)</t>
+  </si>
+  <si>
+    <t>Characteristic [plate]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000149)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000149)</t>
+  </si>
+  <si>
+    <t>Characteristic [contamination]</t>
+  </si>
+  <si>
+    <t>Term Source REF (PATO:0015031)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (PATO:0015031)</t>
+  </si>
+  <si>
+    <t>Characteristic [laboratory strain]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000152)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000152)</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -512,12 +515,59 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -542,30 +592,30 @@
   <autoFilter ref="A1:Z3" xr:uid="{573B771D-DE88-43C1-B3A6-463C725CD007}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{9BE9BF30-12C5-4C1E-B699-70A1F7BB2928}" name="Source Name"/>
-    <tableColumn id="3" xr3:uid="{A9A446D2-7C12-48DF-8A4A-F701B2C67158}" name="Characteristics [Organism]"/>
-    <tableColumn id="4" xr3:uid="{8CFED764-396A-411E-AFCE-A0BADA71E17F}" name="Term Source REF (NFDI4PSO:0000030)"/>
-    <tableColumn id="5" xr3:uid="{6440F72F-F0A9-4629-8E5D-6D8E62B34C98}" name="Term Accession Number (NFDI4PSO:0000030)"/>
-    <tableColumn id="9" xr3:uid="{BCC59779-031F-4DD1-8DE5-A54964B45F2C}" name="Characteristics [Strain]"/>
-    <tableColumn id="10" xr3:uid="{E23AB60A-ABCF-4D8F-A853-68070490599C}" name="Term Source REF (NFDI4PSO:1000146)"/>
-    <tableColumn id="11" xr3:uid="{DD9E7613-9295-42D2-B30B-90589950BB6B}" name="Term Accession Number (NFDI4PSO:1000146)"/>
-    <tableColumn id="18" xr3:uid="{43C553DA-E61B-480E-B40F-0A108EF9B073}" name="Characteristics [Jar]"/>
-    <tableColumn id="19" xr3:uid="{10C60B40-0B01-4078-855E-CEC593B818B8}" name="Term Source REF (NFDI4PSO:1000148)"/>
-    <tableColumn id="20" xr3:uid="{45F6C694-C089-400C-9DC2-63F5C7604DF9}" name="Term Accession Number (NFDI4PSO:1000148)"/>
-    <tableColumn id="21" xr3:uid="{AABE8E23-B955-4B00-8825-5BC382BDE8F9}" name="Characteristics [Plate]"/>
-    <tableColumn id="22" xr3:uid="{FA128994-9C40-4461-9EFE-862ACE85FD00}" name="Term Source REF (NFDI4PSO:1000149)"/>
-    <tableColumn id="23" xr3:uid="{222C15CF-B27E-414D-9107-C99CA018A14C}" name="Term Accession Number (NFDI4PSO:1000149)"/>
+    <tableColumn id="3" xr3:uid="{013E6241-0B80-44D1-80D8-EE06D5ED21A3}" name="Characteristic [organism]"/>
+    <tableColumn id="4" xr3:uid="{A93D5423-DBE9-4825-828B-CF5EA9A70520}" name="Term Source REF (OBI:0100026)" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{8A6D8692-29B4-4134-B719-07460C7909BD}" name="Term Accession Number (OBI:0100026)" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{4185203B-EBB2-4E34-9062-5048C9D0BEBB}" name="Characteristic [strain]" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{53380D7C-41BE-468B-9095-5A9BB6014C5C}" name="Term Source REF (EFO:0005135)" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{D9ED115C-22D8-4C8C-8779-569EDD12D31A}" name="Term Accession Number (EFO:0005135)" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{2698BE8B-A137-4EC6-A57A-FA2FF737061F}" name="Characteristic [jar]" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{09F7C44D-79CA-4D6B-BC5C-FFF290C524A8}" name="Term Source REF (DPBO:1000148)" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{824BB754-0B74-4F90-A260-D0BFE1D03730}" name="Term Accession Number (DPBO:1000148)" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{C136D198-97AF-4CE3-B519-42F07CAD6A54}" name="Characteristic [plate]" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{F9900CD2-CD7D-4E21-96DB-19D3EFD4AF44}" name="Term Source REF (DPBO:1000149)" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{62C11FCC-4DAB-4189-8F93-7E3B598D02C9}" name="Term Accession Number (DPBO:1000149)" dataDxfId="4"/>
     <tableColumn id="24" xr3:uid="{154DE03E-4CD6-45D0-9BAD-086C1B5C0F34}" name="Characteristics [tissue]"/>
     <tableColumn id="25" xr3:uid="{1D33F7C3-724D-4BF0-995B-8D40595C3D56}" name="Term Source REF (UBERON:0000479)"/>
     <tableColumn id="26" xr3:uid="{19C0D854-93B6-4791-AB69-255D38B97D32}" name="Term Accession Number (UBERON:0000479)"/>
-    <tableColumn id="30" xr3:uid="{89AF1676-8DB4-4430-9AD8-EE6ABD80B47E}" name="Characteristics [Contamination]"/>
-    <tableColumn id="31" xr3:uid="{BD7745FF-63D4-43BD-8D10-05282D62D21F}" name="Term Source REF (NFDI4PSO:1000150)"/>
-    <tableColumn id="32" xr3:uid="{DAFFEB42-0ED2-4FDA-A3DC-B76541728400}" name="Term Accession Number (NFDI4PSO:1000150)"/>
+    <tableColumn id="15" xr3:uid="{611F6AE3-C43A-4AB3-8BAC-3CAA4E3236E8}" name="Characteristic [contamination]"/>
+    <tableColumn id="16" xr3:uid="{A00E747C-C022-42F7-B429-7F0F4F4382CF}" name="Term Source REF (PATO:0015031)" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{398E9A18-F38A-4972-ADE4-77F38AC81207}" name="Term Accession Number (PATO:0015031)" dataDxfId="2"/>
     <tableColumn id="33" xr3:uid="{0D338768-EE1E-4C85-9121-41175735C26B}" name="Characteristics [geographic location]"/>
     <tableColumn id="34" xr3:uid="{66B13E1D-E7DD-4556-9A9C-038C83625212}" name="Term Source REF (GAZ:00000448)"/>
     <tableColumn id="35" xr3:uid="{F266EB0E-434D-4072-8548-50917C325550}" name="Term Accession Number (GAZ:00000448)"/>
-    <tableColumn id="36" xr3:uid="{EAE32E45-D463-4916-AB0F-9D5ED0D199EB}" name="Characteristics [Laboratory strain]"/>
-    <tableColumn id="37" xr3:uid="{AFCD3D4A-8142-4FB3-BAA1-1305857044D6}" name="Term Source REF (NFDI4PSO:1000152)"/>
-    <tableColumn id="38" xr3:uid="{95F2DA50-D467-429A-A6B4-BEEE52295C0F}" name="Term Accession Number (NFDI4PSO:1000152)"/>
+    <tableColumn id="18" xr3:uid="{1E793247-4A47-40E9-A60C-B76919013ACE}" name="Characteristic [laboratory strain]"/>
+    <tableColumn id="19" xr3:uid="{2685522A-5D8F-41CC-9D30-6A9D131D91FC}" name="Term Source REF (DPBO:1000152)" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{26B3B25C-BCF5-4D12-B29A-5F1F7A0F4E12}" name="Term Accession Number (DPBO:1000152)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{F307075E-2C46-4583-BC2A-4B039E25A7FC}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -904,7 +954,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="531" row="4">
+  <wetp:taskpane dockstate="right" visibility="0" width="976" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="531" row="3">
@@ -937,38 +987,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F193D82-16EC-4A20-B182-29BFE0E2B994}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.44140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="42.44140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="39.5546875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.21875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="40.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="29" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.5546875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="43.33203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.33203125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="37.77734375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -976,135 +1026,235 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" t="s">
-        <v>24</v>
-      </c>
       <c r="W1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="X1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="Y1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="Z1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S9" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R10" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S10" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R11" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S11" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R12" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S12" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R13" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R14" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S14" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572684A2-9E71-42AD-9F7C-B33D71D1EB3B}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1132,79 +1282,79 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1212,121 +1362,121 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B27" s="9"/>
     </row>

--- a/templates/community/MAdLand/MAdLand_sample_sheets.xlsx
+++ b/templates/community/MAdLand/MAdLand_sample_sheets.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MAdLand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D162ECA0-4AFA-4A24-B6AA-950DA3AC33D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B5B4DF-A67D-4C96-ADC8-0DF58DC42B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3EB6A5A-F5C7-441F-91D4-3808AE23C83B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D3EB6A5A-F5C7-441F-91D4-3808AE23C83B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample information" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F193D82-16EC-4A20-B182-29BFE0E2B994}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1269,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572684A2-9E71-42AD-9F7C-B33D71D1EB3B}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
